--- a/packopp.xlsx
+++ b/packopp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0459262-63C0-4DD2-9C3F-2C57C09F38EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFD9E41-BFB8-4820-8FCB-77AF9A75E42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
